--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2108046.38314038</v>
+        <v>2105633.470634576</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673444</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>126.1834840891869</v>
+        <v>191.754917432858</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,16 +1427,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514552</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W14" t="n">
-        <v>234.0716522785256</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>236.8621683961352</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211454</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286722</v>
+        <v>110.9843290728814</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783478</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299266</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6518993993761</v>
+        <v>338.6518993993762</v>
       </c>
       <c r="G17" t="n">
-        <v>65.943368707628</v>
+        <v>342.6975793111183</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3836180449851</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584045</v>
+        <v>40.96361544584065</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>135.6938237972849</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165668</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277997</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750778</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361338</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137184</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6078338396019</v>
+        <v>111.6078338396021</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629246</v>
+        <v>99.02267475629266</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587698</v>
+        <v>80.39132667587718</v>
       </c>
       <c r="E19" t="n">
-        <v>78.2098163042338</v>
+        <v>78.209816304234</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059587</v>
+        <v>77.19690168059607</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669285</v>
+        <v>97.80166191669305</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198541</v>
+        <v>76.53086857198561</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750272</v>
+        <v>28.12827406750291</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771196</v>
+        <v>20.70800632771214</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891067</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338338</v>
+        <v>151.324802933834</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632777</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814928</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942558</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467018</v>
+        <v>157.485509046702</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097596</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211455</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286724</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783479</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299267</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.6518993993764</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>231.7564992464745</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449851</v>
+        <v>226.3836180449854</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.9636154458405</v>
+        <v>40.96361544584073</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972851</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165669</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277998</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750779</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361337</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.217657312319</v>
+        <v>318.0137923137185</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396022</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629249</v>
+        <v>99.02267475629273</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587701</v>
+        <v>80.39132667587725</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423383</v>
+        <v>78.20981630423407</v>
       </c>
       <c r="F22" t="n">
-        <v>77.1969016805959</v>
+        <v>77.19690168059614</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669288</v>
+        <v>97.80166191669312</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198544</v>
+        <v>76.53086857198568</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750277</v>
+        <v>28.12827406750299</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.708006327712</v>
+        <v>20.70800632771223</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891068</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338341</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632777</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814929</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942559</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467018</v>
+        <v>157.485509046702</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097597</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211455</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286724</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783479</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299267</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993761</v>
+        <v>338.6518993993764</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111181</v>
+        <v>342.6975793111184</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449851</v>
+        <v>226.3836180449854</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584052</v>
+        <v>40.96361544584074</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972851</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165669</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277998</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750779</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361337</v>
+        <v>301.506954336134</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137185</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247635</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396022</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629249</v>
+        <v>99.02267475629273</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587701</v>
+        <v>80.39132667587725</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423383</v>
+        <v>78.20981630423407</v>
       </c>
       <c r="F25" t="n">
-        <v>77.1969016805959</v>
+        <v>77.19690168059614</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669288</v>
+        <v>97.80166191669312</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198544</v>
+        <v>76.53086857198568</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750277</v>
+        <v>28.12827406750301</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.708006327712</v>
+        <v>20.70800632771224</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891068</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338341</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632777</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814929</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942559</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.485509046702</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097597</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687285</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2798,7 +2798,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536694</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958302</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>111.7690391349161</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092316</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>231.0452163728803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007073</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.233249911515</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307968</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383218</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052271</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010723</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846405</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482612</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092322</v>
+        <v>68.3410880309231</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621577</v>
+        <v>99.36210032693546</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.0843051033369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
-        <v>230.7340562419016</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377523</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390066</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084563</v>
+        <v>257.4761241679854</v>
       </c>
       <c r="G41" t="n">
         <v>338.9631323201983</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>222.6491710540654</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492064</v>
+        <v>37.22916845492072</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256468</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368797</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
-        <v>271.7251467166906</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X41" t="n">
         <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227983</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486821</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537262</v>
+        <v>95.28822776537271</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495715</v>
+        <v>76.65687968495723</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331396</v>
+        <v>74.47536931331405</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967604</v>
+        <v>73.46245468967612</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577302</v>
+        <v>94.0672149257731</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106557</v>
+        <v>72.79642158106566</v>
       </c>
       <c r="I43" t="n">
-        <v>24.3938270765829</v>
+        <v>24.39382707658299</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679214</v>
+        <v>16.97355933679222</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981867</v>
+        <v>149.2230882337272</v>
       </c>
       <c r="T43" t="n">
-        <v>147.590355942914</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723576</v>
+        <v>214.2532448723577</v>
       </c>
       <c r="V43" t="n">
-        <v>211.5917062261145</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X43" t="n">
-        <v>153.7510620557819</v>
+        <v>153.751062055782</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377523</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D44" t="n">
         <v>282.7244482874278</v>
@@ -3992,7 +3992,7 @@
         <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540653</v>
+        <v>172.4551712651727</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492064</v>
+        <v>37.22916845492072</v>
       </c>
       <c r="T44" t="n">
         <v>131.959376806365</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256468</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368797</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X44" t="n">
         <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>264.0853455339075</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486821</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537262</v>
+        <v>95.28822776537271</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495715</v>
+        <v>76.65687968495723</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331396</v>
+        <v>74.47536931331405</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967604</v>
+        <v>73.46245468967612</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577302</v>
+        <v>94.0672149257731</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106557</v>
+        <v>72.79642158106566</v>
       </c>
       <c r="I46" t="n">
-        <v>24.3938270765829</v>
+        <v>24.39382707658299</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679214</v>
+        <v>16.97355933679222</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981867</v>
+        <v>117.8104319981868</v>
       </c>
       <c r="T46" t="n">
-        <v>179.0030121784557</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723576</v>
+        <v>214.2532448723577</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X46" t="n">
-        <v>153.7510620557819</v>
+        <v>185.1637182913225</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
   </sheetData>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.98077385971</v>
+        <v>1640.517726580263</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.467889867371</v>
+        <v>1640.517726580263</v>
       </c>
       <c r="D11" t="n">
-        <v>1263.467889867371</v>
+        <v>1329.701660921585</v>
       </c>
       <c r="E11" t="n">
-        <v>925.1292702172003</v>
+        <v>991.3630412714142</v>
       </c>
       <c r="F11" t="n">
-        <v>561.5929983756661</v>
+        <v>627.82676942988</v>
       </c>
       <c r="G11" t="n">
-        <v>193.9701811687358</v>
+        <v>260.2039522229492</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810557</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V11" t="n">
-        <v>2898.155827638544</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W11" t="n">
-        <v>2592.836805316503</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.820680003496</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y11" t="n">
-        <v>1924.130980975758</v>
+        <v>1640.517726580263</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052948</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998333</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5221,28 +5221,28 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1404.802502940301</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>772.4735532892851</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T14" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>3262.764786084339</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V14" t="n">
-        <v>3262.764786084339</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387288</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052941</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611978</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.849232726878</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770408</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.155714499833</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657642</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5467,7 +5467,7 @@
         <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1610.141157431108</v>
+        <v>1473.076688949002</v>
       </c>
       <c r="C17" t="n">
-        <v>1310.091919624368</v>
+        <v>1360.971306047102</v>
       </c>
       <c r="D17" t="n">
-        <v>1020.73950015129</v>
+        <v>1071.618886574023</v>
       </c>
       <c r="E17" t="n">
-        <v>703.8645266867178</v>
+        <v>754.7439131094508</v>
       </c>
       <c r="F17" t="n">
-        <v>361.7919010307824</v>
+        <v>412.671287453515</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897441</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269937</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T17" t="n">
-        <v>3284.228432269937</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>3099.611234677446</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V17" t="n">
-        <v>2837.461626467547</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W17" t="n">
-        <v>2553.606250331105</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2249.053771203697</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y17" t="n">
-        <v>1927.827718361558</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061027</v>
+        <v>609.2207265061041</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118679</v>
+        <v>509.1978227118692</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332043</v>
+        <v>427.9944624332053</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844833</v>
+        <v>348.9946479844841</v>
       </c>
       <c r="F19" t="n">
-        <v>271.017979620245</v>
+        <v>271.0179796202456</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286361</v>
+        <v>172.2284221286365</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016594</v>
+        <v>94.92451448016617</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>140.2594919287908</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.2466748776672</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>660.8064733261633</v>
+        <v>660.8064733261663</v>
       </c>
       <c r="M19" t="n">
-        <v>1004.963518925712</v>
+        <v>1004.963518925715</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.371895631577</v>
+        <v>1346.37189563158</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.70149455199</v>
+        <v>1645.701494551994</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.30899498565</v>
+        <v>1878.308994985653</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138165</v>
+        <v>1955.919291138168</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029365</v>
+        <v>1935.002113029368</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.229507989866</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.376171693064</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952379</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.415374880164</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976876</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125284</v>
+        <v>873.8352122125301</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026703</v>
+        <v>721.9559122026719</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1547.618239455466</v>
+        <v>1777.629168076409</v>
       </c>
       <c r="C20" t="n">
-        <v>1247.569001648726</v>
+        <v>1477.57993026967</v>
       </c>
       <c r="D20" t="n">
-        <v>958.2165821756474</v>
+        <v>1188.227510796591</v>
       </c>
       <c r="E20" t="n">
-        <v>641.3416087110757</v>
+        <v>871.3525373320185</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110757</v>
+        <v>529.2799116760827</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1824376897442</v>
+        <v>295.1824376897444</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.228432269937</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T20" t="n">
-        <v>3147.163963787831</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>2962.546766195339</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V20" t="n">
         <v>2700.397157985441</v>
@@ -5792,10 +5792,10 @@
         <v>2416.541781848999</v>
       </c>
       <c r="X20" t="n">
-        <v>2111.989302721591</v>
+        <v>2416.541781848999</v>
       </c>
       <c r="Y20" t="n">
-        <v>1865.304800385915</v>
+        <v>2095.315729006859</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.220726506103</v>
+        <v>609.2207265061046</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118681</v>
+        <v>509.1978227118695</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332045</v>
+        <v>427.9944624332057</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844834</v>
+        <v>348.9946479844844</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202451</v>
+        <v>271.0179796202459</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286361</v>
+        <v>172.2284221286366</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016598</v>
+        <v>94.92451448016625</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>344.2466748776682</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>660.8064733261643</v>
+        <v>660.8064733261674</v>
       </c>
       <c r="M22" t="n">
-        <v>1004.963518925713</v>
+        <v>1004.963518925716</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631578</v>
+        <v>1346.371895631581</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.701494551991</v>
+        <v>1645.701494551995</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.30899498565</v>
+        <v>1878.308994985654</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138165</v>
+        <v>1955.919291138169</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029365</v>
+        <v>1935.002113029369</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.229507989867</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.376171693065</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.18658395238</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.415374880165</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976876</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125286</v>
+        <v>873.8352122125308</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026707</v>
+        <v>721.9559122026725</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237164</v>
+        <v>1898.193195237166</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430424</v>
+        <v>1598.143957430426</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957346</v>
+        <v>1308.791537957347</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927739</v>
+        <v>991.9165644927746</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368383</v>
+        <v>649.8439388368388</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155078</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794673</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794673</v>
       </c>
       <c r="J23" t="n">
-        <v>303.5155742292531</v>
+        <v>263.8935775169721</v>
       </c>
       <c r="K23" t="n">
-        <v>637.3349479190995</v>
+        <v>597.7129512068185</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.369161167508</v>
+        <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1621.901065839432</v>
+        <v>1582.279069127151</v>
       </c>
       <c r="N23" t="n">
-        <v>2168.679882898215</v>
+        <v>2129.057886185933</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.644533227669</v>
+        <v>2632.03035706527</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584847</v>
+        <v>3168.167803157293</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340529</v>
+        <v>3626.646005666281</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897332</v>
+        <v>3750.722327897336</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558099</v>
+        <v>3709.344938558103</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075993</v>
+        <v>3572.280470075996</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483502</v>
+        <v>3387.663272483504</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273603</v>
+        <v>3125.513664273606</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137161</v>
+        <v>2841.658288137163</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.105809009754</v>
+        <v>2537.105809009755</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167614</v>
+        <v>2215.879756167616</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068719</v>
+        <v>950.0461846068708</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257449</v>
+        <v>775.5931553257439</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644936</v>
+        <v>626.6587456644926</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590382</v>
+        <v>467.4212906590371</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.8867326859221</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185412</v>
+        <v>184.5236325185402</v>
       </c>
       <c r="H24" t="n">
-        <v>94.0217381564087</v>
+        <v>94.02173815640769</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794673</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6917160485639</v>
+        <v>168.691716048564</v>
       </c>
       <c r="K24" t="n">
-        <v>406.955915028911</v>
+        <v>406.9559150289111</v>
       </c>
       <c r="L24" t="n">
         <v>773.6540753415763</v>
@@ -6090,28 +6090,28 @@
         <v>2573.555872659103</v>
       </c>
       <c r="R24" t="n">
-        <v>2573.41151925162</v>
+        <v>2573.411519251619</v>
       </c>
       <c r="S24" t="n">
-        <v>2443.9736327451</v>
+        <v>2443.973632745099</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.330632422955</v>
+        <v>2251.330632422954</v>
       </c>
       <c r="U24" t="n">
-        <v>2023.262785557371</v>
+        <v>2023.26278555737</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.110677325628</v>
+        <v>1788.110677325627</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.873320597427</v>
+        <v>1533.873320597426</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.021820391894</v>
+        <v>1326.021820391893</v>
       </c>
       <c r="Y24" t="n">
-        <v>1118.26152162694</v>
+        <v>1118.261521626939</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318663</v>
+        <v>617.723056631868</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376314</v>
+        <v>517.7001528376329</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589677</v>
+        <v>436.496792558969</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102467</v>
+        <v>357.4969781102477</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460084</v>
+        <v>279.5203097460092</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543994</v>
+        <v>180.7307522543999</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059292</v>
+        <v>103.4268446059296</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794673</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1370790048822</v>
+        <v>120.1370790048823</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1242619537585</v>
+        <v>324.1242619537586</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022545</v>
+        <v>640.6840604022548</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.465849051477</v>
+        <v>984.8411060018037</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.874225757341</v>
+        <v>1326.249482707668</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677754</v>
+        <v>1625.579081628082</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111414</v>
+        <v>1858.186582061741</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263928</v>
+        <v>1964.421621263932</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155128</v>
+        <v>1943.504443155132</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115627</v>
+        <v>1820.73183811563</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818825</v>
+        <v>1667.878501818828</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.68891407814</v>
+        <v>1447.688914078143</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005926</v>
+        <v>1261.917705005928</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102637</v>
+        <v>1041.41381410264</v>
       </c>
       <c r="X25" t="n">
-        <v>882.337542338292</v>
+        <v>882.3375423382942</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284339</v>
+        <v>730.4582423284359</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6227,49 +6227,49 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1496.733761127193</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799117</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.044482857899</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737236</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6315,7 +6315,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913841</v>
@@ -6373,7 +6373,7 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,7 +6400,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,10 +6449,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6470,10 +6470,10 @@
         <v>1468.364237198915</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2548.674958929621</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
         <v>3355.268050164795</v>
@@ -6488,10 +6488,10 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6607,13 +6607,13 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6622,10 +6622,10 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,16 +6649,16 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6707,19 +6707,19 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.20875468258</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O32" t="n">
-        <v>3083.181225561917</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3477.955591919094</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,16 +6731,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6780,7 +6780,7 @@
         <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803195</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6883,25 +6883,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307339</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.5121164321834</v>
@@ -6935,25 +6935,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6974,7 +6974,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
@@ -7017,49 +7017,49 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647787</v>
+        <v>543.5641013650704</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368718</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
         <v>66.5121164321834</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
         <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150354</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908615</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211749</v>
+        <v>626.5411316214668</v>
       </c>
     </row>
     <row r="38">
@@ -7157,67 +7157,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307329</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.602264964779</v>
+        <v>552.4050786964428</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107155</v>
+        <v>482.1403303423795</v>
       </c>
       <c r="D40" t="n">
-        <v>379.2208771983798</v>
+        <v>430.6951255038873</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159867</v>
+        <v>381.4534664953378</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>333.234953571271</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>264.2035515198335</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1478.120214357883</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151997</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.689990688879</v>
+        <v>886.8213698466992</v>
       </c>
       <c r="X40" t="n">
-        <v>804.7004397908619</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211752</v>
+        <v>635.382108952839</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1642.159700465357</v>
+        <v>1503.254038370575</v>
       </c>
       <c r="C41" t="n">
-        <v>1345.882631336314</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D41" t="n">
-        <v>1060.302380540932</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="E41" t="n">
-        <v>747.1995757540569</v>
+        <v>893.8741644546571</v>
       </c>
       <c r="F41" t="n">
-        <v>408.8991187758181</v>
+        <v>633.7972713556819</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>291.4102690120474</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7424,37 +7424,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947635</v>
+        <v>3288.000600947633</v>
       </c>
       <c r="T41" t="n">
-        <v>3288.000600947635</v>
+        <v>3154.708301143224</v>
       </c>
       <c r="U41" t="n">
-        <v>3107.15557203284</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V41" t="n">
-        <v>2848.778132500638</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W41" t="n">
-        <v>2574.308287332264</v>
+        <v>2435.402625237482</v>
       </c>
       <c r="X41" t="n">
-        <v>2273.527976882553</v>
+        <v>2134.622314787771</v>
       </c>
       <c r="Y41" t="n">
-        <v>1956.07409271811</v>
+        <v>1817.168430623328</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622252</v>
+        <v>582.8155457622257</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456871</v>
+        <v>486.5648106456877</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447203</v>
+        <v>409.1336190447207</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736961</v>
+        <v>333.9059732736964</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871546</v>
+        <v>259.7014735871549</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732425</v>
+        <v>164.6840847732427</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246918</v>
+        <v>91.15234580246924</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7594,25 +7594,25 @@
         <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295584</v>
+        <v>1759.419146502109</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.067934676479</v>
+        <v>1610.337978883004</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V43" t="n">
-        <v>1211.921519425497</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999056</v>
+        <v>995.1897971999065</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132572</v>
+        <v>839.885694113258</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.778562781096</v>
+        <v>691.7785627810966</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1553.955048258345</v>
+        <v>1503.254038370575</v>
       </c>
       <c r="C44" t="n">
-        <v>1257.677979129302</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D44" t="n">
-        <v>972.0977283339208</v>
+        <v>921.3967184461505</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339208</v>
+        <v>921.3967184461505</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556821</v>
+        <v>583.0962614679117</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242771</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
@@ -7667,31 +7667,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947635</v>
+        <v>3288.000600947634</v>
       </c>
       <c r="T44" t="n">
-        <v>3154.708301143226</v>
+        <v>3154.708301143225</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.863272228431</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V44" t="n">
-        <v>2715.485832696229</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.402625237484</v>
+        <v>2435.402625237482</v>
       </c>
       <c r="X44" t="n">
-        <v>2134.622314787773</v>
+        <v>2134.622314787771</v>
       </c>
       <c r="Y44" t="n">
-        <v>1867.869440511098</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7737,40 +7737,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622252</v>
+        <v>582.8155457622257</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456871</v>
+        <v>486.5648106456877</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447203</v>
+        <v>409.1336190447207</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736961</v>
+        <v>333.9059732736964</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871546</v>
+        <v>259.7014735871549</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732425</v>
+        <v>164.6840847732427</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246918</v>
+        <v>91.15234580246924</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7834,22 +7834,22 @@
         <v>1791.149102295584</v>
       </c>
       <c r="T46" t="n">
-        <v>1610.337978883003</v>
+        <v>1642.067934676479</v>
       </c>
       <c r="U46" t="n">
-        <v>1393.920559820015</v>
+        <v>1425.650515613492</v>
       </c>
       <c r="V46" t="n">
-        <v>1211.921519425497</v>
+        <v>1243.651475218973</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999056</v>
+        <v>1026.919752993382</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8856941132572</v>
+        <v>839.885694113258</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.778562781096</v>
+        <v>691.7785627810966</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331813</v>
+        <v>161.2833466331807</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772616</v>
+        <v>190.4708996772608</v>
       </c>
       <c r="L8" t="n">
-        <v>199.021486711494</v>
+        <v>199.021486711493</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499973</v>
+        <v>189.4604205499961</v>
       </c>
       <c r="N8" t="n">
-        <v>187.865675725396</v>
+        <v>187.8656757253949</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001307</v>
+        <v>190.8661912001296</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610383</v>
+        <v>197.7493741610373</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168185</v>
+        <v>197.1608845168178</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723704</v>
+        <v>115.0671825723701</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484546</v>
+        <v>117.723875248454</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888321</v>
+        <v>111.5038326888313</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586509</v>
+        <v>110.56732135865</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809837</v>
+        <v>98.93952256809743</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195528</v>
+        <v>112.9545713195519</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755404</v>
+        <v>110.1843514755397</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137826</v>
+        <v>124.0787517137821</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747618</v>
+        <v>119.3562654747614</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960291</v>
+        <v>122.5532519960286</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290574</v>
+        <v>111.702314729057</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297873</v>
+        <v>123.6934388297868</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182094</v>
+        <v>125.0956219182091</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>40.02221890129402</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>142.7909896311565</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.090683099391754e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,16 +9875,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>122.1718867553234</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>306.6874953089259</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>306.6874953089261</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>402.5500016878934</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.1187564935616</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>121.449143679541</v>
+        <v>55.87771033586991</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.27897692436818e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>68.19417982029482</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4006336413258</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>186.064416355791</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>276.7542106034901</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.3836180449853</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972848</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6518993993761</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>110.9410800646439</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>301.506954336134</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.79613500139922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1.84741111297626e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.486899575160351e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25631,19 +25631,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>77.44132824047092</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540653</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>131.959376806365</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.557228667467172</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390066</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889263</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.19399978889089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>891659.1935072761</v>
+        <v>891659.1935072757</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757616.613942843</v>
+        <v>757616.6139428433</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757616.6139428432</v>
+        <v>757616.6139428433</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780704.5129680786</v>
+        <v>780704.5129680785</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780704.5129680786</v>
+        <v>780704.5129680785</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>829463.3364444516</v>
+        <v>829463.3364444517</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841543.683570326</v>
+        <v>841543.6835703261</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841543.683570326</v>
+        <v>841543.6835703261</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812714.6049179229</v>
+        <v>812714.6049179228</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>784762.1390015928</v>
+        <v>784762.1390015926</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>784762.1390015928</v>
+        <v>784762.1390015925</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>634939.1625057049</v>
+      </c>
+      <c r="C2" t="n">
         <v>634939.1625057048</v>
       </c>
-      <c r="C2" t="n">
-        <v>634939.1625057047</v>
-      </c>
       <c r="D2" t="n">
-        <v>634953.5268079353</v>
+        <v>634953.5268079349</v>
       </c>
       <c r="E2" t="n">
-        <v>592511.5326646281</v>
+        <v>592511.5326646284</v>
       </c>
       <c r="F2" t="n">
-        <v>592511.5326646281</v>
+        <v>592511.5326646284</v>
       </c>
       <c r="G2" t="n">
+        <v>610863.4524026359</v>
+      </c>
+      <c r="H2" t="n">
         <v>610863.4524026354</v>
       </c>
-      <c r="H2" t="n">
-        <v>610863.4524026359</v>
-      </c>
       <c r="I2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="J2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="K2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="J2" t="n">
-        <v>636307.3716448196</v>
-      </c>
-      <c r="K2" t="n">
-        <v>636307.3716448197</v>
-      </c>
       <c r="L2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="M2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.371644819</v>
       </c>
       <c r="O2" t="n">
-        <v>614088.7448908136</v>
+        <v>614088.7448908138</v>
       </c>
       <c r="P2" t="n">
-        <v>614088.7448908138</v>
+        <v>614088.7448908137</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264901</v>
+        <v>49603.99004265045</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112468</v>
+        <v>1114814.601112467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899458</v>
+        <v>16999.20777899412</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.8516171636</v>
+        <v>28261.85161716375</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225414</v>
+        <v>40637.45238225407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899422</v>
+        <v>16999.2077789941</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>434286.8804955493</v>
+        <v>434286.8804955488</v>
       </c>
       <c r="E4" t="n">
-        <v>60045.38930863552</v>
+        <v>60045.38930863541</v>
       </c>
       <c r="F4" t="n">
-        <v>60045.38930863553</v>
+        <v>60045.38930863541</v>
       </c>
       <c r="G4" t="n">
-        <v>73454.04572443686</v>
+        <v>73454.04572443677</v>
       </c>
       <c r="H4" t="n">
-        <v>73454.0457244369</v>
+        <v>73454.04572443673</v>
       </c>
       <c r="I4" t="n">
-        <v>90253.02344554527</v>
+        <v>90253.02344554529</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.9551969959</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699587</v>
+        <v>88960.95519699583</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="O4" t="n">
-        <v>75820.46586589154</v>
+        <v>75820.46586589146</v>
       </c>
       <c r="P4" t="n">
-        <v>75820.46586589149</v>
+        <v>75820.46586589146</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253469</v>
+        <v>34890.26850253473</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024707</v>
+        <v>80041.87632024709</v>
       </c>
       <c r="H5" t="n">
         <v>80041.87632024707</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582714</v>
+        <v>86503.64721582718</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.8275443267</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.8275443267</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148911.5719567396</v>
+        <v>148907.1583788716</v>
       </c>
       <c r="C6" t="n">
-        <v>148911.5719567395</v>
+        <v>148907.1583788715</v>
       </c>
       <c r="D6" t="n">
-        <v>116172.3877672024</v>
+        <v>116168.0205257916</v>
       </c>
       <c r="E6" t="n">
-        <v>-660603.9510782568</v>
+        <v>-660745.2279781915</v>
       </c>
       <c r="F6" t="n">
-        <v>454210.6500342109</v>
+        <v>454069.3731342751</v>
       </c>
       <c r="G6" t="n">
-        <v>440368.3225789568</v>
+        <v>440286.2454201123</v>
       </c>
       <c r="H6" t="n">
-        <v>457367.530357952</v>
+        <v>457285.4531991062</v>
       </c>
       <c r="I6" t="n">
-        <v>431288.8493662836</v>
+        <v>431288.8493662835</v>
       </c>
       <c r="J6" t="n">
-        <v>417331.0223907634</v>
+        <v>417331.0223907637</v>
       </c>
       <c r="K6" t="n">
-        <v>457968.4747730177</v>
+        <v>457968.4747730176</v>
       </c>
       <c r="L6" t="n">
-        <v>440969.2669940234</v>
+        <v>440969.2669940232</v>
       </c>
       <c r="M6" t="n">
-        <v>259436.7754276642</v>
+        <v>259436.775427664</v>
       </c>
       <c r="N6" t="n">
-        <v>461604.875420388</v>
+        <v>461604.8754203873</v>
       </c>
       <c r="O6" t="n">
-        <v>457912.4514805953</v>
+        <v>457840.7784910667</v>
       </c>
       <c r="P6" t="n">
-        <v>457912.4514805956</v>
+        <v>457840.7784910665</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859252</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68.22414634233517</v>
+      </c>
+      <c r="H2" t="n">
+        <v>68.2241463423351</v>
+      </c>
+      <c r="I2" t="n">
+        <v>68.2241463423351</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="G2" t="n">
-        <v>68.22414634233537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>68.22414634233535</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68.22414634233535</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>46.97513661859257</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859258</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076583</v>
+        <v>57.92057351076751</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.680581974333</v>
+        <v>937.680581974334</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26823,13 +26823,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374279</v>
+        <v>21.24900972374265</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.7261268948498</v>
+        <v>25.72612689485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374277</v>
+        <v>21.24900972374262</v>
       </c>
       <c r="M2" t="n">
-        <v>50.7095836095125</v>
+        <v>50.70958360951238</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076583</v>
+        <v>57.92057351076751</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082532</v>
+        <v>1031.856127082531</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.099495649563683e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720406</v>
+        <v>106.2791265720412</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428131</v>
+        <v>76.65587923428041</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374279</v>
+        <v>21.24900972374265</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.7261268948498</v>
+        <v>25.72612689485</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.090162624442</v>
+        <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507123</v>
+        <v>201.499073850712</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098104</v>
+        <v>135.24257230981</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596058</v>
+        <v>203.7140793596057</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.1072318885895</v>
+        <v>85.10723188858937</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643179</v>
+        <v>92.42270548643157</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659313</v>
+        <v>169.3690802659312</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508934</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112974</v>
+        <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.9747817528494</v>
+        <v>85.97478175284918</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657814</v>
+        <v>10.13465691657779</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156875</v>
+        <v>77.41603665156849</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348048</v>
+        <v>172.5970773348046</v>
       </c>
       <c r="S10" t="n">
         <v>222.1963728005765</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="J19" t="n">
-        <v>28.91388186835543</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.91388186835815</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233517</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
     </row>
     <row r="21">
@@ -28956,37 +28956,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>28.91388186835655</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>28.91388186835951</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>28.91388186835673</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.91388186835995</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.2241463423351</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>55.47778196371175</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W37" t="n">
-        <v>55.47778196371067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810501</v>
+        <v>45.39291458738532</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="U40" t="n">
-        <v>55.47778196371129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810512</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325521</v>
+        <v>40.5459370977147</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="V43" t="n">
-        <v>40.54593709771353</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="T46" t="n">
-        <v>40.54593709771348</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325521</v>
+        <v>40.54593709771461</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325512</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764454</v>
+        <v>0.2328465266764521</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325147</v>
+        <v>2.384639491325216</v>
       </c>
       <c r="I8" t="n">
-        <v>8.97681571969367</v>
+        <v>8.97681571969393</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350498</v>
+        <v>19.76255789350555</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771891</v>
+        <v>29.61895136771977</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849319</v>
+        <v>36.74492825849425</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727542</v>
+        <v>40.8858126772766</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119488</v>
+        <v>41.54738787119608</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155597</v>
+        <v>39.23202022155711</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423122</v>
+        <v>33.48362159423219</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763101</v>
+        <v>25.14480535763174</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133928</v>
+        <v>14.6265456313397</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639505</v>
+        <v>5.305990226639659</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01928567052614</v>
+        <v>1.01928567052617</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411563</v>
+        <v>0.01862772213411617</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986284</v>
+        <v>0.124583875098632</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610438</v>
+        <v>1.203217951610472</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825583</v>
+        <v>4.289400962825708</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429629</v>
+        <v>11.77044409429663</v>
       </c>
       <c r="K9" t="n">
-        <v>20.1175637259044</v>
+        <v>20.11756372590498</v>
       </c>
       <c r="L9" t="n">
-        <v>27.0505470910421</v>
+        <v>27.05054709104289</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336737</v>
+        <v>31.56671256336829</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523494</v>
+        <v>32.40218951523588</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489164</v>
+        <v>29.6416731248925</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593878984</v>
+        <v>23.79005593879053</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223895</v>
+        <v>15.90302237223941</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211335</v>
+        <v>7.735128666211558</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906539</v>
+        <v>2.314090837906606</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282432</v>
+        <v>0.5021604439282578</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278188</v>
+        <v>0.008196307572278424</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390859</v>
+        <v>0.1044469358390889</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693282</v>
+        <v>0.9286282113693551</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960876</v>
+        <v>3.141004215960967</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823374</v>
+        <v>7.384398363823588</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930471</v>
+        <v>12.13483490930506</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647647</v>
+        <v>15.52841080647692</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157598</v>
+        <v>16.37253195157646</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617577</v>
+        <v>15.98322973617623</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205553</v>
+        <v>14.76309962205596</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093817</v>
+        <v>12.63238213093853</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125641</v>
+        <v>8.746006600125893</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364716</v>
+        <v>4.696314042364852</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395706</v>
+        <v>1.820225236395759</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124579</v>
+        <v>0.4462732713124708</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222875</v>
+        <v>0.00569710559122304</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33041,7 +33041,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33500,10 +33500,10 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026442</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193706</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597634</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>74.49229848142166</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385564</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>234.9615414126761</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385576</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>230.8092198700065</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>541.5529758505281</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>376.5472612618405</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36534,7 +36534,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>107.3081204062536</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>577.7620011476554</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
@@ -36613,10 +36613,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36838,13 +36838,13 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>845.6086111391525</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>814.7404961971451</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37075,7 +37075,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>941.47111751812</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
@@ -37084,13 +37084,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>459.913061297281</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923309</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597747</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
